--- a/Dallas_Crime_Data_Definition.xlsx
+++ b/Dallas_Crime_Data_Definition.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yubin\OneDrive\MyWork\SMU\MSDS7331\MSDS7331-Data-Mining\Dallas Crime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yubin\OneDrive\MyWork\SMU\MSDS7331\MSDS7331-Data-Mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{3B1DDA59-37E7-44C7-BC5E-4E827AF178F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{11BCEC2A-7DEB-4D56-9E1C-61E3065960D8}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{3B1DDA59-37E7-44C7-BC5E-4E827AF178F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5CCF43FC-F710-47EA-BFD3-8AAF90B0868C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{257E40C7-5E52-43CB-94B9-6D8871EE68F9}"/>
   </bookViews>
@@ -1781,10 +1781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23266A-FDE5-42AA-B610-04E36CCB5C1F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="11" t="s">
         <v>172</v>
@@ -1839,7 +1840,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="11" t="s">
         <v>174</v>
@@ -1898,7 +1899,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>12</v>
@@ -1957,7 +1958,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="11" t="s">
         <v>19</v>
@@ -1974,7 +1975,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>26</v>
@@ -1991,7 +1992,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>179</v>
@@ -2105,7 +2106,7 @@
       </c>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="11" t="s">
         <v>0</v>
@@ -2124,7 +2125,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="11" t="s">
         <v>46</v>
@@ -2164,7 +2165,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="11" t="s">
         <v>184</v>
@@ -2181,7 +2182,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="11" t="s">
         <v>186</v>
@@ -2236,7 +2237,7 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="11" t="s">
         <v>192</v>
@@ -2274,7 +2275,7 @@
       </c>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="11" t="s">
         <v>196</v>
@@ -2291,7 +2292,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="11" t="s">
         <v>198</v>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>203</v>
@@ -2363,7 +2364,7 @@
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
         <v>53</v>
@@ -2380,7 +2381,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>55</v>
@@ -2397,7 +2398,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>348</v>
       </c>
@@ -2416,7 +2417,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="31"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="11" t="s">
         <v>207</v>
@@ -2433,7 +2434,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="11" t="s">
         <v>209</v>
@@ -2450,7 +2451,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="11" t="s">
         <v>57</v>
@@ -2467,7 +2468,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="32"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>211</v>
@@ -2484,7 +2485,7 @@
       <c r="F37" s="37"/>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="11" t="s">
         <v>212</v>
@@ -2577,7 +2578,7 @@
       </c>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="11" t="s">
         <v>213</v>
@@ -2636,7 +2637,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="11" t="s">
         <v>216</v>
@@ -2750,7 +2751,7 @@
       </c>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="11" t="s">
         <v>162</v>
@@ -2767,7 +2768,7 @@
       <c r="F52" s="23"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="11" t="s">
         <v>218</v>
@@ -2841,7 +2842,7 @@
       </c>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="11" t="s">
         <v>165</v>
@@ -2858,7 +2859,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="20"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="11" t="s">
         <v>166</v>
@@ -2875,7 +2876,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="11" t="s">
         <v>220</v>
@@ -2892,7 +2893,7 @@
       <c r="F59" s="23"/>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="11" t="s">
         <v>221</v>
@@ -2911,7 +2912,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="11" t="s">
         <v>222</v>
@@ -2928,7 +2929,7 @@
       <c r="F61" s="23"/>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="11" t="s">
         <v>223</v>
@@ -2945,7 +2946,7 @@
       <c r="F62" s="23"/>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="11" t="s">
         <v>225</v>
@@ -2962,7 +2963,7 @@
       <c r="F63" s="23"/>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="11" t="s">
         <v>227</v>
@@ -2979,7 +2980,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="20"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="11" t="s">
         <v>228</v>
@@ -2996,7 +2997,7 @@
       <c r="F65" s="23"/>
       <c r="G65" s="20"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="11" t="s">
         <v>229</v>
@@ -3013,7 +3014,7 @@
       <c r="F66" s="23"/>
       <c r="G66" s="20"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="11" t="s">
         <v>230</v>
@@ -3030,7 +3031,7 @@
       <c r="F67" s="23"/>
       <c r="G67" s="20"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="11" t="s">
         <v>84</v>
@@ -3047,7 +3048,7 @@
       <c r="F68" s="23"/>
       <c r="G68" s="20"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="11" t="s">
         <v>86</v>
@@ -3102,7 +3103,7 @@
       </c>
       <c r="G71" s="20"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="11" t="s">
         <v>90</v>
@@ -3119,7 +3120,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="20"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="11" t="s">
         <v>92</v>
@@ -3136,7 +3137,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="20"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="11" t="s">
         <v>99</v>
@@ -3191,7 +3192,7 @@
       </c>
       <c r="G76" s="20"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="11" t="s">
         <v>238</v>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="G79" s="20"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="11" t="s">
         <v>240</v>
@@ -3301,7 +3302,7 @@
       </c>
       <c r="G82" s="20"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="11" t="s">
         <v>243</v>
@@ -3318,7 +3319,7 @@
       <c r="F83" s="23"/>
       <c r="G83" s="20"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="11" t="s">
         <v>97</v>
@@ -3335,7 +3336,7 @@
       <c r="F84" s="23"/>
       <c r="G84" s="20"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="11" t="s">
         <v>98</v>
@@ -3352,7 +3353,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="20"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="11" t="s">
         <v>244</v>
@@ -3388,7 +3389,7 @@
       </c>
       <c r="G87" s="20"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="24"/>
       <c r="B88" s="11" t="s">
         <v>247</v>
@@ -3405,7 +3406,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="20"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="11" t="s">
         <v>249</v>
@@ -3422,7 +3423,7 @@
       <c r="F89" s="23"/>
       <c r="G89" s="20"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24"/>
       <c r="B90" s="11" t="s">
         <v>250</v>
@@ -3439,7 +3440,7 @@
       <c r="F90" s="23"/>
       <c r="G90" s="20"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24"/>
       <c r="B91" s="11" t="s">
         <v>251</v>
@@ -3456,7 +3457,7 @@
       <c r="F91" s="23"/>
       <c r="G91" s="20"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="11" t="s">
         <v>252</v>
@@ -3473,7 +3474,7 @@
       <c r="F92" s="23"/>
       <c r="G92" s="20"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="11" t="s">
         <v>253</v>
@@ -3490,7 +3491,7 @@
       <c r="F93" s="23"/>
       <c r="G93" s="20"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="11" t="s">
         <v>254</v>
@@ -3507,7 +3508,7 @@
       <c r="F94" s="23"/>
       <c r="G94" s="20"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="11" t="s">
         <v>106</v>
@@ -3600,7 +3601,7 @@
       </c>
       <c r="G99" s="20"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="11" t="s">
         <v>259</v>
@@ -3617,7 +3618,7 @@
       <c r="F100" s="23"/>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="12" t="s">
         <v>261</v>
@@ -3635,7 +3636,13 @@
       <c r="G101" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G101" xr:uid="{BE5FE986-2386-41CA-B934-CA2FE1CDA302}"/>
+  <autoFilter ref="A1:G101" xr:uid="{BE5FE986-2386-41CA-B934-CA2FE1CDA302}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="G33:G37"/>
     <mergeCell ref="A19:A24"/>

--- a/Dallas_Crime_Data_Definition.xlsx
+++ b/Dallas_Crime_Data_Definition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yubin\OneDrive\MyWork\SMU\MSDS7331\MSDS7331-Data-Mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="8_{3B1DDA59-37E7-44C7-BC5E-4E827AF178F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{5CCF43FC-F710-47EA-BFD3-8AAF90B0868C}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{3B1DDA59-37E7-44C7-BC5E-4E827AF178F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{047BBAFD-D9C5-46B4-98EC-D1C3FE310739}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{257E40C7-5E52-43CB-94B9-6D8871EE68F9}"/>
   </bookViews>
@@ -1781,11 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A23266A-FDE5-42AA-B610-04E36CCB5C1F}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="11" t="s">
         <v>172</v>
@@ -1840,7 +1839,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="11" t="s">
         <v>174</v>
@@ -1899,7 +1898,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>12</v>
@@ -1958,7 +1957,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="11" t="s">
         <v>19</v>
@@ -1975,7 +1974,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>26</v>
@@ -1992,7 +1991,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>179</v>
@@ -2106,7 +2105,7 @@
       </c>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="11" t="s">
         <v>0</v>
@@ -2125,7 +2124,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="11" t="s">
         <v>46</v>
@@ -2165,7 +2164,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="11" t="s">
         <v>184</v>
@@ -2182,7 +2181,7 @@
       <c r="F20" s="26"/>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="11" t="s">
         <v>186</v>
@@ -2237,7 +2236,7 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="11" t="s">
         <v>192</v>
@@ -2275,7 +2274,7 @@
       </c>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="11" t="s">
         <v>196</v>
@@ -2292,7 +2291,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="11" t="s">
         <v>198</v>
@@ -2347,7 +2346,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="11" t="s">
         <v>203</v>
@@ -2364,7 +2363,7 @@
       <c r="F30" s="29"/>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="11" t="s">
         <v>53</v>
@@ -2381,7 +2380,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="11" t="s">
         <v>55</v>
@@ -2398,7 +2397,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>348</v>
       </c>
@@ -2417,7 +2416,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="31"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
       <c r="B34" s="11" t="s">
         <v>207</v>
@@ -2434,7 +2433,7 @@
       <c r="F34" s="36"/>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="11" t="s">
         <v>209</v>
@@ -2451,7 +2450,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
       <c r="B36" s="11" t="s">
         <v>57</v>
@@ -2468,7 +2467,7 @@
       <c r="F36" s="36"/>
       <c r="G36" s="32"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="11" t="s">
         <v>211</v>
@@ -2485,7 +2484,7 @@
       <c r="F37" s="37"/>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="11" t="s">
         <v>212</v>
@@ -2578,7 +2577,7 @@
       </c>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="11" t="s">
         <v>213</v>
@@ -2637,7 +2636,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="11" t="s">
         <v>216</v>
@@ -2751,7 +2750,7 @@
       </c>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="11" t="s">
         <v>162</v>
@@ -2768,7 +2767,7 @@
       <c r="F52" s="23"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="11" t="s">
         <v>218</v>
@@ -2842,7 +2841,7 @@
       </c>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="11" t="s">
         <v>165</v>
@@ -2859,7 +2858,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="20"/>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="11" t="s">
         <v>166</v>
@@ -2876,7 +2875,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="11" t="s">
         <v>220</v>
@@ -2893,7 +2892,7 @@
       <c r="F59" s="23"/>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="11" t="s">
         <v>221</v>
@@ -2912,7 +2911,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="11" t="s">
         <v>222</v>
@@ -2929,7 +2928,7 @@
       <c r="F61" s="23"/>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="11" t="s">
         <v>223</v>
@@ -2946,7 +2945,7 @@
       <c r="F62" s="23"/>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="11" t="s">
         <v>225</v>
@@ -2963,7 +2962,7 @@
       <c r="F63" s="23"/>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="11" t="s">
         <v>227</v>
@@ -2980,7 +2979,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="20"/>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="11" t="s">
         <v>228</v>
@@ -2997,7 +2996,7 @@
       <c r="F65" s="23"/>
       <c r="G65" s="20"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="11" t="s">
         <v>229</v>
@@ -3014,7 +3013,7 @@
       <c r="F66" s="23"/>
       <c r="G66" s="20"/>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="11" t="s">
         <v>230</v>
@@ -3031,7 +3030,7 @@
       <c r="F67" s="23"/>
       <c r="G67" s="20"/>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="11" t="s">
         <v>84</v>
@@ -3048,7 +3047,7 @@
       <c r="F68" s="23"/>
       <c r="G68" s="20"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="11" t="s">
         <v>86</v>
@@ -3103,7 +3102,7 @@
       </c>
       <c r="G71" s="20"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="11" t="s">
         <v>90</v>
@@ -3120,7 +3119,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="20"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="11" t="s">
         <v>92</v>
@@ -3137,7 +3136,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="20"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="B74" s="11" t="s">
         <v>99</v>
@@ -3192,7 +3191,7 @@
       </c>
       <c r="G76" s="20"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="11" t="s">
         <v>238</v>
@@ -3247,7 +3246,7 @@
       </c>
       <c r="G79" s="20"/>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="11" t="s">
         <v>240</v>
@@ -3302,7 +3301,7 @@
       </c>
       <c r="G82" s="20"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="24"/>
       <c r="B83" s="11" t="s">
         <v>243</v>
@@ -3319,7 +3318,7 @@
       <c r="F83" s="23"/>
       <c r="G83" s="20"/>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="24"/>
       <c r="B84" s="11" t="s">
         <v>97</v>
@@ -3336,7 +3335,7 @@
       <c r="F84" s="23"/>
       <c r="G84" s="20"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="24"/>
       <c r="B85" s="11" t="s">
         <v>98</v>
@@ -3353,7 +3352,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="20"/>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="24"/>
       <c r="B86" s="11" t="s">
         <v>244</v>
@@ -3389,7 +3388,7 @@
       </c>
       <c r="G87" s="20"/>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="24"/>
       <c r="B88" s="11" t="s">
         <v>247</v>
@@ -3406,7 +3405,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="20"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="24"/>
       <c r="B89" s="11" t="s">
         <v>249</v>
@@ -3423,7 +3422,7 @@
       <c r="F89" s="23"/>
       <c r="G89" s="20"/>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="24"/>
       <c r="B90" s="11" t="s">
         <v>250</v>
@@ -3440,7 +3439,7 @@
       <c r="F90" s="23"/>
       <c r="G90" s="20"/>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="24"/>
       <c r="B91" s="11" t="s">
         <v>251</v>
@@ -3457,7 +3456,7 @@
       <c r="F91" s="23"/>
       <c r="G91" s="20"/>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="24"/>
       <c r="B92" s="11" t="s">
         <v>252</v>
@@ -3474,7 +3473,7 @@
       <c r="F92" s="23"/>
       <c r="G92" s="20"/>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="24"/>
       <c r="B93" s="11" t="s">
         <v>253</v>
@@ -3491,7 +3490,7 @@
       <c r="F93" s="23"/>
       <c r="G93" s="20"/>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="24"/>
       <c r="B94" s="11" t="s">
         <v>254</v>
@@ -3508,7 +3507,7 @@
       <c r="F94" s="23"/>
       <c r="G94" s="20"/>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="24"/>
       <c r="B95" s="11" t="s">
         <v>106</v>
@@ -3601,7 +3600,7 @@
       </c>
       <c r="G99" s="20"/>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
       <c r="B100" s="11" t="s">
         <v>259</v>
@@ -3618,7 +3617,7 @@
       <c r="F100" s="23"/>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="12" t="s">
         <v>261</v>
@@ -3636,13 +3635,7 @@
       <c r="G101" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G101" xr:uid="{BE5FE986-2386-41CA-B934-CA2FE1CDA302}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G101" xr:uid="{BE5FE986-2386-41CA-B934-CA2FE1CDA302}"/>
   <mergeCells count="5">
     <mergeCell ref="G33:G37"/>
     <mergeCell ref="A19:A24"/>
